--- a/braile.xlsx
+++ b/braile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -137,6 +137,9 @@
       </rPr>
       <t>ANGUÊLICA APARECIDA DE BATTISTI ANDRADE</t>
     </r>
+  </si>
+  <si>
+    <t>FIM - BRAILE</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,47 +242,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,162 +563,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="1.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>20</v>
       </c>
-      <c r="B1" s="2">
-        <v>240008</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
-        <v>240026</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
-        <v>240019</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
-        <v>240014</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>240006</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>240009</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
-        <v>240021</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
-        <v>240023</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
-        <v>240016</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>240024</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -745,21 +677,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/braile.xlsx
+++ b/braile.xlsx
@@ -11,96 +11,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FLÁVIA DE SOUZA BARBOSA GONÇALVES SIMÃO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ALESSANDRA DOS ANJOS DA SILVA HENRIQUES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>CARLA DOS REIS BASTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SHEILA THEREZINHA DE AZEVEDO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>RITA DE CASSIA MATHEUS CARVA LHO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SIMONI TEDESCO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>VINICIUS MUNIZ EVANGELISTA</t>
-    </r>
-  </si>
-  <si>
-    <t>FIM - BRAILE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>CARLA DOS REIS BASTOS</t>
+  </si>
+  <si>
+    <t>SHEILA THEREZINHA DE AZEVEDO</t>
+  </si>
+  <si>
+    <t>RITA DE CASSIA MATHEUS CARVA- LHO</t>
+  </si>
+  <si>
+    <t>SIMONI TEDESCO</t>
+  </si>
+  <si>
+    <t>VINICIUS MUNIZ EVANGELISTA</t>
+  </si>
+  <si>
+    <t>SUELLEN MELO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>KAROLINE AGUIAR DE JESUS BRANDEL</t>
+  </si>
+  <si>
+    <t>SANDRA ROTMEISTER DELGADO</t>
+  </si>
+  <si>
+    <t>Item 4.5 do edital</t>
+  </si>
+  <si>
+    <t>ALINE SILVA DE PAULA</t>
+  </si>
+  <si>
+    <t>ANDREIA APARECIDA RODRIGUES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ROGÉRIA NUNES HENRIQUES</t>
+  </si>
+  <si>
+    <t>HEVENY DAS DORES DOMINGOS PASSOS DE ANDRADE</t>
+  </si>
+  <si>
+    <t>GLÁUCIA DE SOUSA NASSIF SAL- ZER</t>
+  </si>
+  <si>
+    <t>FLÁVIA SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>FERNANDA APARECIDA FRIZEIRO MARTINS</t>
+  </si>
+  <si>
+    <t>SANDRA MARIA CARVALHO</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA LUCAS</t>
+  </si>
+  <si>
+    <t>IZABEL CRISTINA MENEZES SAN- TOS OVIDIO</t>
+  </si>
+  <si>
+    <t>ROSANE MARIA DO CARMO</t>
+  </si>
+  <si>
+    <t>BRUNO FERNANDO LUIZ (Item 4.5 do edital)</t>
+  </si>
+  <si>
+    <t>ANGUÊLICA APARECIDA DE BATTIS- TI ANDRADE</t>
+  </si>
+  <si>
+    <t>FLÁVIA DE SOUZA BARBOSA GON- ÇALVES SIMÃO</t>
+  </si>
+  <si>
+    <t>ALESSANDRA DOS ANJOS DA SILVA HENRIQUES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0;###0"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -108,65 +97,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Open Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,70 +347,269 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="43.25"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>240013.0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>9.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>240017.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>10.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>240022.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>11.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>240027.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>12.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>240020.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>13.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>240001.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>14.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>240002.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>240010.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>240016.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>240004.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>240012.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>240015.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>240008.0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>240026.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>240019.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>240014.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>240006.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>240009.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>240021.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>240023.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>240016.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>240024.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>240005.0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>240011.0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
